--- a/data/topology-entry.xlsx
+++ b/data/topology-entry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guannanzhou/Desktop/工作/09.解决方案/03.adhoc/06.AI/topology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guannanzhou/Desktop/工作/09.解决方案/03.adhoc/06.AI/topology/topology_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15DC8DC-F27F-774F-A1A7-95A395C42658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10087207-B53C-1043-9CB7-4D8BE099006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,6 @@
     <t>天擎-终端防护及检测响应-EPP/EDR</t>
   </si>
   <si>
-    <t>天擎-终端防护及检测响应-EPP/EDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>椒图-主机安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,6 +403,10 @@
   </si>
   <si>
     <t>天眼-流量探针</t>
+  </si>
+  <si>
+    <t>天擎-终端安全-EPP/EDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E83FC4D-85F6-8440-9DBB-A10BD751CCF6}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -836,7 +836,7 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360BAF8-4A8A-4D40-B70E-A17CF1A4D8E5}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1096,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1254,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1296,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1341,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
@@ -1356,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1371,16 +1371,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1389,19 +1389,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1410,19 +1410,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1443,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1458,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1467,10 +1467,10 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
         <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1479,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1488,10 +1488,10 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>102</v>
-      </c>
-      <c r="F25" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1500,7 +1500,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1515,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -1524,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1539,7 +1539,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -1548,10 +1548,10 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1560,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -1575,13 +1575,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/topology-entry.xlsx
+++ b/data/topology-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guannanzhou/Desktop/工作/09.解决方案/03.adhoc/06.AI/topology/topology_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10087207-B53C-1043-9CB7-4D8BE099006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31847DD-B5AF-5145-B26C-42697FB23518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天擎-终端防护及检测响应-EPP/EDR</t>
-  </si>
-  <si>
     <t>椒图-主机安全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,6 +404,9 @@
   <si>
     <t>天擎-终端安全-EPP/EDR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天擎-终端安全-EPP/EDR</t>
   </si>
 </sst>
 </file>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E83FC4D-85F6-8440-9DBB-A10BD751CCF6}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -833,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -857,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360BAF8-4A8A-4D40-B70E-A17CF1A4D8E5}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1096,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1254,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1296,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1341,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
@@ -1356,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1371,16 +1371,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1389,19 +1389,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1410,19 +1410,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1443,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1458,7 +1458,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1467,10 +1467,10 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1479,7 +1479,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1488,10 +1488,10 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
         <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1500,7 +1500,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1515,7 +1515,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -1524,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1539,7 +1539,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -1548,10 +1548,10 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1560,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
@@ -1575,13 +1575,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/topology-entry.xlsx
+++ b/data/topology-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guannanzhou/Desktop/工作/09.解决方案/03.adhoc/06.AI/topology/topology_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31847DD-B5AF-5145-B26C-42697FB23518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8872FE16-061A-A342-B177-E62FD487E576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E83FC4D-85F6-8440-9DBB-A10BD751CCF6}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360BAF8-4A8A-4D40-B70E-A17CF1A4D8E5}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/topology-entry.xlsx
+++ b/data/topology-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guannanzhou/Desktop/工作/09.解决方案/03.adhoc/06.AI/topology/topology_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8872FE16-061A-A342-B177-E62FD487E576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86D43A-F8BB-0E44-953F-9EE594C8375A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="14460" windowHeight="16420" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="123">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,12 +189,6 @@
     <t>server-EDR.png</t>
   </si>
   <si>
-    <t>server-email-EDR.png</t>
-  </si>
-  <si>
-    <t>server-email.png</t>
-  </si>
-  <si>
     <t>server.png</t>
   </si>
   <si>
@@ -240,14 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮件服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件安全网关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,9 +356,6 @@
   </si>
   <si>
     <t>NGSOC-安全运营平台</t>
-  </si>
-  <si>
-    <t>NGSOC-安全运营平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,11 +385,90 @@
     <t>天眼-流量探针</t>
   </si>
   <si>
+    <t>准入-NAC</t>
+  </si>
+  <si>
+    <t>SOAR</t>
+  </si>
+  <si>
+    <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警/日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警/流量日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产/漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略下发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告警/事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件威胁检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下发策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒图-主机安全</t>
+  </si>
+  <si>
+    <t>威胁情报-TIP</t>
+  </si>
+  <si>
+    <t>漏扫</t>
+  </si>
+  <si>
     <t>天擎-终端安全-EPP/EDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天擎-终端安全-EPP/EDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -801,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E83FC4D-85F6-8440-9DBB-A10BD751CCF6}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -833,22 +895,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <f t="shared" ref="A3:A33" si="0">IF(ISBLANK(B3),"",A2+1)</f>
+        <f t="shared" ref="A3:A31" si="0">IF(ISBLANK(B3),"",A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -857,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -869,46 +931,82 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1027,18 +1125,6 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1053,19 +1139,19 @@
           <x14:formula1>
             <xm:f>Zone!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:C27</xm:sqref>
+          <xm:sqref>C25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37250EF1-0EE7-744D-AE3F-6D228AFDDBF8}">
+          <x14:formula1>
+            <xm:f>Product!$B$2:$B$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6 B8:B24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F466E4C4-FE16-E541-8305-FB35F361E39F}">
           <x14:formula1>
             <xm:f>Zone!$B$2:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37250EF1-0EE7-744D-AE3F-6D228AFDDBF8}">
-          <x14:formula1>
-            <xm:f>Product!$B$2:$B$30</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B26</xm:sqref>
+          <xm:sqref>C2:C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1075,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360BAF8-4A8A-4D40-B70E-A17CF1A4D8E5}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1088,7 +1174,7 @@
     <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,22 +1182,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1119,133 +1289,277 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3">
+        <f t="shared" ref="A3:A33" si="0">IF(ISBLANK(B3),"",A2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <f>IF(ISBLANK(B3),"",A2+1)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="X5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="17" customHeight="1">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <f t="shared" ref="A4:A38" si="0">IF(ISBLANK(B4),"",A3+1)</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="N7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V10" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1254,19 +1568,22 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1274,14 +1591,17 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1289,14 +1609,17 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -1304,14 +1627,17 @@
       <c r="D14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1319,14 +1645,17 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1334,263 +1663,302 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
         <v>88</v>
       </c>
-      <c r="G27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>73</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
       <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>75</v>
+      </c>
+      <c r="K29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <f>IF(ISBLANK(B31),"",A29+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1602,39 +1970,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{42BC2C8C-E211-CB42-887D-171D4F2E07E9}">
+      <formula1>$B$2:$B$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1642,7 +1986,7 @@
           <x14:formula1>
             <xm:f>Zone!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F30</xm:sqref>
+          <xm:sqref>F2:F29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1673,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1682,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1691,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1700,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1708,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1717,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/data/topology-entry.xlsx
+++ b/data/topology-entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guannanzhou/Desktop/工作/09.解决方案/03.adhoc/06.AI/topology/topology_app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A86D43A-F8BB-0E44-953F-9EE594C8375A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0484C136-F456-284B-9553-50BD4300064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16780" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16640" activeTab="1" xr2:uid="{1B9DFEE4-4773-DF4C-9923-82383A3D4CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +440,6 @@
   </si>
   <si>
     <t>文件样本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下发策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -895,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -979,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -991,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -1003,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
@@ -1163,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F360BAF8-4A8A-4D40-B70E-A17CF1A4D8E5}">
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1200,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J1" t="s">
         <v>55</v>
@@ -1373,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1475,7 +1471,7 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
         <v>104</v>
@@ -1751,7 +1747,7 @@
         <v>95</v>
       </c>
       <c r="AF20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -1766,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="Z21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -1784,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="Z22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -1931,7 +1927,7 @@
         <v>104</v>
       </c>
       <c r="M28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -1999,7 +1995,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
